--- a/Template/Шаблон для загрузки приказов в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки приказов в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Приказы" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$Q$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Номер ведущего документа</t>
+          <t>Номер документа</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Дата ведущего документа</t>
+          <t>Дата документа</t>
         </r>
       </text>
     </comment>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Содержание</t>
   </si>
@@ -222,12 +222,15 @@
   </si>
   <si>
     <t>Журнал регистрации</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -326,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -386,14 +389,30 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -763,11 +782,11 @@
     <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="32.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="14" width="32.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
@@ -783,7 +802,7 @@
       <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -792,7 +811,7 @@
       <c r="H1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="17" t="s">
@@ -801,35 +820,35 @@
       <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -841,7 +860,7 @@
       <c r="I3" s="11"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -852,7 +871,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -863,7 +882,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -874,7 +893,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -885,7 +904,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -896,7 +915,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -907,7 +926,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -918,7 +937,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -929,7 +948,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -940,7 +959,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -951,7 +970,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -962,7 +981,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -973,7 +992,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1052,7 +1071,7 @@
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:P2"/>
+  <autoFilter ref="A1:Q2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
